--- a/data/_filelist.xlsx
+++ b/data/_filelist.xlsx
@@ -1,22 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="26408"/>
+  <workbookPr filterPrivacy="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/YangWanjun/Documents/workspace/gis/data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
   <si>
     <t>都道府県データ</t>
     <rPh sb="0" eb="4">
@@ -95,6 +105,21 @@
   </si>
   <si>
     <t>join.zip</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>市区町村コード</t>
+    <rPh sb="0" eb="4">
+      <t>シクチョウソn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>http://nlftp.mlit.go.jp/isj/index.html</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>city_code</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -106,13 +131,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Yu Gothic"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Yu Gothic"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -121,7 +146,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Yu Gothic"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -169,7 +194,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="ホワイト">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -211,12 +236,12 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -246,12 +271,12 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -455,20 +480,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E7"/>
+  <dimension ref="B2:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.25" customWidth="1"/>
-    <col min="4" max="4" width="27.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.1640625" customWidth="1"/>
+    <col min="4" max="4" width="35.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>3</v>
       </c>
@@ -482,7 +507,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>0</v>
       </c>
@@ -496,7 +521,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>7</v>
       </c>
@@ -510,7 +535,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>8</v>
       </c>
@@ -522,7 +547,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>9</v>
       </c>
@@ -534,7 +559,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>10</v>
       </c>
@@ -544,6 +569,17 @@
       <c r="D7" s="2"/>
       <c r="E7" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -566,7 +602,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -579,7 +615,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/_filelist.xlsx
+++ b/data/_filelist.xlsx
@@ -1,22 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="26408"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/YangWanjun/Documents/workspace/gis/data/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000"/>
+    <workbookView xWindow="0" yWindow="15" windowWidth="25605" windowHeight="15990"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -26,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
   <si>
     <t>都道府県データ</t>
     <rPh sb="0" eb="4">
@@ -120,6 +115,14 @@
   </si>
   <si>
     <t>city_code</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CP932</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※ Shift-JISではない。</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -127,7 +130,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -236,7 +239,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -271,7 +274,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -480,20 +483,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E8"/>
+  <dimension ref="B2:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.1640625" customWidth="1"/>
+    <col min="2" max="2" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.125" customWidth="1"/>
     <col min="4" max="4" width="35.5" customWidth="1"/>
+    <col min="6" max="6" width="33.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:6">
       <c r="B2" t="s">
         <v>3</v>
       </c>
@@ -507,7 +509,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:6">
       <c r="B3" t="s">
         <v>0</v>
       </c>
@@ -521,7 +523,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:6">
       <c r="B4" t="s">
         <v>7</v>
       </c>
@@ -535,7 +537,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:6">
       <c r="B5" t="s">
         <v>8</v>
       </c>
@@ -547,7 +549,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:6">
       <c r="B6" t="s">
         <v>9</v>
       </c>
@@ -559,7 +561,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:6">
       <c r="B7" t="s">
         <v>10</v>
       </c>
@@ -571,7 +573,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:6">
       <c r="B8" t="s">
         <v>17</v>
       </c>
@@ -580,6 +582,12 @@
       </c>
       <c r="D8" t="s">
         <v>18</v>
+      </c>
+      <c r="E8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -602,7 +610,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -615,7 +623,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/_filelist.xlsx
+++ b/data/_filelist.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="15" windowWidth="25605" windowHeight="15990"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="25605" windowHeight="15975"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" refMode="R1C1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
   <si>
     <t>都道府県データ</t>
     <rPh sb="0" eb="4">
@@ -123,6 +123,18 @@
   </si>
   <si>
     <t>※ Shift-JISではない。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全国市区町村界データ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>japan_ver81.zip</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://www.esrij.com/products/japan-shp/</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -483,15 +495,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F8"/>
+  <dimension ref="B2:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.125" customWidth="1"/>
-    <col min="4" max="4" width="35.5" customWidth="1"/>
+    <col min="2" max="2" width="22.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="33.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -588,6 +602,20 @@
       </c>
       <c r="F8" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6">
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -598,9 +626,10 @@
   <hyperlinks>
     <hyperlink ref="D4" r:id="rId1"/>
     <hyperlink ref="D3" r:id="rId2"/>
+    <hyperlink ref="D9" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId4"/>
 </worksheet>
 </file>
 
